--- a/xls_data/2018-2.xlsx
+++ b/xls_data/2018-2.xlsx
@@ -8,17 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="VRKT" sheetId="1" r:id="rId1"/>
-    <sheet name="TSRT" sheetId="2" r:id="rId2"/>
-    <sheet name="KZBG" sheetId="3" r:id="rId3"/>
-    <sheet name="AGMS" sheetId="4" r:id="rId4"/>
-    <sheet name="TBL01" sheetId="5" r:id="rId5"/>
+    <sheet name="KZBG" sheetId="2" r:id="rId2"/>
+    <sheet name="AGMS" sheetId="3" r:id="rId3"/>
+    <sheet name="TBL01" sheetId="4" r:id="rId4"/>
+    <sheet name="TSRT" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="470">
   <si>
     <t>ნივთიერება</t>
   </si>
@@ -599,6 +599,387 @@
     <t>54.88</t>
   </si>
   <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>84.58</t>
+  </si>
+  <si>
+    <t>134.55</t>
+  </si>
+  <si>
+    <t>10.62</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>42.83</t>
+  </si>
+  <si>
+    <t>27.56</t>
+  </si>
+  <si>
+    <t>43.29</t>
+  </si>
+  <si>
+    <t>62.75</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>6.88</t>
+  </si>
+  <si>
+    <t>5.44</t>
+  </si>
+  <si>
+    <t>13.26</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>16.24</t>
+  </si>
+  <si>
+    <t>28.67</t>
+  </si>
+  <si>
+    <t>21.62</t>
+  </si>
+  <si>
+    <t>7.79</t>
+  </si>
+  <si>
+    <t>40.26</t>
+  </si>
+  <si>
+    <t>62.56</t>
+  </si>
+  <si>
+    <t>4.88</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>7.92</t>
+  </si>
+  <si>
+    <t>41.81</t>
+  </si>
+  <si>
+    <t>45.62</t>
+  </si>
+  <si>
+    <t>1.57</t>
+  </si>
+  <si>
+    <t>7.25</t>
+  </si>
+  <si>
+    <t>20.63</t>
+  </si>
+  <si>
+    <t>37.14</t>
+  </si>
+  <si>
+    <t>48.25</t>
+  </si>
+  <si>
+    <t>1.46</t>
+  </si>
+  <si>
+    <t>8.04</t>
+  </si>
+  <si>
+    <t>47.37</t>
+  </si>
+  <si>
+    <t>68.73</t>
+  </si>
+  <si>
+    <t>36.62</t>
+  </si>
+  <si>
+    <t>1.61</t>
+  </si>
+  <si>
+    <t>42.88</t>
+  </si>
+  <si>
+    <t>13.23</t>
+  </si>
+  <si>
+    <t>27.69</t>
+  </si>
+  <si>
+    <t>69.50</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>7.04</t>
+  </si>
+  <si>
+    <t>10.46</t>
+  </si>
+  <si>
+    <t>24.12</t>
+  </si>
+  <si>
+    <t>73.12</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>26.46</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>29.91</t>
+  </si>
+  <si>
+    <t>45.81</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>7.96</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>48.12</t>
+  </si>
+  <si>
+    <t>9.50</t>
+  </si>
+  <si>
+    <t>1.54</t>
+  </si>
+  <si>
+    <t>7.38</t>
+  </si>
+  <si>
+    <t>19.47</t>
+  </si>
+  <si>
+    <t>29.90</t>
+  </si>
+  <si>
+    <t>26.75</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>11.62</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>20.35</t>
+  </si>
+  <si>
+    <t>41.72</t>
+  </si>
+  <si>
+    <t>11.12</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>8.29</t>
+  </si>
+  <si>
+    <t>20.90</t>
+  </si>
+  <si>
+    <t>39.75</t>
+  </si>
+  <si>
+    <t>14.50</t>
+  </si>
+  <si>
+    <t>9.62</t>
+  </si>
+  <si>
+    <t>28.91</t>
+  </si>
+  <si>
+    <t>46.93</t>
+  </si>
+  <si>
+    <t>5.88</t>
+  </si>
+  <si>
+    <t>2.23</t>
+  </si>
+  <si>
+    <t>10.30</t>
+  </si>
+  <si>
+    <t>47.70</t>
+  </si>
+  <si>
+    <t>65.18</t>
+  </si>
+  <si>
+    <t>30.75</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>7.21</t>
+  </si>
+  <si>
+    <t>12.97</t>
+  </si>
+  <si>
+    <t>32.16</t>
+  </si>
+  <si>
+    <t>58.88</t>
+  </si>
+  <si>
+    <t>8.33</t>
+  </si>
+  <si>
+    <t>15.75</t>
+  </si>
+  <si>
+    <t>32.79</t>
+  </si>
+  <si>
+    <t>11.25</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>10.25</t>
+  </si>
+  <si>
+    <t>27.70</t>
+  </si>
+  <si>
+    <t>57.03</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>45.92</t>
+  </si>
+  <si>
+    <t>32.27</t>
+  </si>
+  <si>
+    <t>69.82</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>23.98</t>
+  </si>
+  <si>
+    <t>59.69</t>
+  </si>
+  <si>
+    <t>37.25</t>
+  </si>
+  <si>
+    <t>1.60</t>
+  </si>
+  <si>
+    <t>9.07</t>
+  </si>
+  <si>
+    <t>21.77</t>
+  </si>
+  <si>
+    <t>31.50</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>11.15</t>
+  </si>
+  <si>
+    <t>18.71</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>8.12</t>
+  </si>
+  <si>
+    <t>13.16</t>
+  </si>
+  <si>
+    <t>22.25</t>
+  </si>
+  <si>
+    <t>16.75</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>12.76</t>
+  </si>
+  <si>
+    <t>16.38</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>16.35</t>
+  </si>
+  <si>
+    <t>37.45</t>
+  </si>
+  <si>
+    <t>28.62</t>
+  </si>
+  <si>
+    <t>43.71</t>
+  </si>
+  <si>
+    <t>41.25</t>
+  </si>
+  <si>
+    <t>38.12</t>
+  </si>
+  <si>
     <t>42.96</t>
   </si>
   <si>
@@ -632,9 +1013,6 @@
     <t>49.75</t>
   </si>
   <si>
-    <t>0.88</t>
-  </si>
-  <si>
     <t>38.25</t>
   </si>
   <si>
@@ -647,9 +1025,6 @@
     <t>14.17</t>
   </si>
   <si>
-    <t>45.62</t>
-  </si>
-  <si>
     <t>1.29</t>
   </si>
   <si>
@@ -668,9 +1043,6 @@
     <t>16.50</t>
   </si>
   <si>
-    <t>1.57</t>
-  </si>
-  <si>
     <t>52.83</t>
   </si>
   <si>
@@ -680,9 +1052,6 @@
     <t>75.22</t>
   </si>
   <si>
-    <t>10.62</t>
-  </si>
-  <si>
     <t>1.64</t>
   </si>
   <si>
@@ -857,9 +1226,6 @@
     <t>13.75</t>
   </si>
   <si>
-    <t>0.75</t>
-  </si>
-  <si>
     <t>35.50</t>
   </si>
   <si>
@@ -1010,15 +1376,9 @@
     <t>3.14</t>
   </si>
   <si>
-    <t>41.25</t>
-  </si>
-  <si>
     <t>21.88</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>23.50</t>
   </si>
   <si>
@@ -1031,9 +1391,6 @@
     <t>18.12</t>
   </si>
   <si>
-    <t>11.25</t>
-  </si>
-  <si>
     <t>45.25</t>
   </si>
   <si>
@@ -1061,9 +1418,6 @@
     <t>27.51</t>
   </si>
   <si>
-    <t>12.00</t>
-  </si>
-  <si>
     <t>44.79</t>
   </si>
   <si>
@@ -1113,369 +1467,6 @@
   </si>
   <si>
     <t>1.23</t>
-  </si>
-  <si>
-    <t>39.96</t>
-  </si>
-  <si>
-    <t>84.58</t>
-  </si>
-  <si>
-    <t>134.55</t>
-  </si>
-  <si>
-    <t>14.79</t>
-  </si>
-  <si>
-    <t>42.83</t>
-  </si>
-  <si>
-    <t>27.56</t>
-  </si>
-  <si>
-    <t>43.29</t>
-  </si>
-  <si>
-    <t>62.75</t>
-  </si>
-  <si>
-    <t>34.46</t>
-  </si>
-  <si>
-    <t>6.88</t>
-  </si>
-  <si>
-    <t>5.44</t>
-  </si>
-  <si>
-    <t>13.26</t>
-  </si>
-  <si>
-    <t>39.75</t>
-  </si>
-  <si>
-    <t>16.24</t>
-  </si>
-  <si>
-    <t>28.67</t>
-  </si>
-  <si>
-    <t>21.62</t>
-  </si>
-  <si>
-    <t>49.17</t>
-  </si>
-  <si>
-    <t>7.79</t>
-  </si>
-  <si>
-    <t>40.26</t>
-  </si>
-  <si>
-    <t>62.56</t>
-  </si>
-  <si>
-    <t>4.88</t>
-  </si>
-  <si>
-    <t>37.54</t>
-  </si>
-  <si>
-    <t>7.92</t>
-  </si>
-  <si>
-    <t>41.81</t>
-  </si>
-  <si>
-    <t>38.46</t>
-  </si>
-  <si>
-    <t>7.25</t>
-  </si>
-  <si>
-    <t>20.63</t>
-  </si>
-  <si>
-    <t>37.14</t>
-  </si>
-  <si>
-    <t>48.25</t>
-  </si>
-  <si>
-    <t>42.17</t>
-  </si>
-  <si>
-    <t>8.04</t>
-  </si>
-  <si>
-    <t>47.37</t>
-  </si>
-  <si>
-    <t>68.73</t>
-  </si>
-  <si>
-    <t>36.62</t>
-  </si>
-  <si>
-    <t>42.88</t>
-  </si>
-  <si>
-    <t>13.23</t>
-  </si>
-  <si>
-    <t>27.69</t>
-  </si>
-  <si>
-    <t>69.50</t>
-  </si>
-  <si>
-    <t>24.04</t>
-  </si>
-  <si>
-    <t>7.04</t>
-  </si>
-  <si>
-    <t>10.46</t>
-  </si>
-  <si>
-    <t>24.12</t>
-  </si>
-  <si>
-    <t>73.12</t>
-  </si>
-  <si>
-    <t>36.42</t>
-  </si>
-  <si>
-    <t>26.46</t>
-  </si>
-  <si>
-    <t>60.58</t>
-  </si>
-  <si>
-    <t>29.91</t>
-  </si>
-  <si>
-    <t>45.81</t>
-  </si>
-  <si>
-    <t>46.75</t>
-  </si>
-  <si>
-    <t>7.96</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>48.12</t>
-  </si>
-  <si>
-    <t>9.50</t>
-  </si>
-  <si>
-    <t>36.96</t>
-  </si>
-  <si>
-    <t>7.38</t>
-  </si>
-  <si>
-    <t>19.47</t>
-  </si>
-  <si>
-    <t>29.90</t>
-  </si>
-  <si>
-    <t>26.75</t>
-  </si>
-  <si>
-    <t>44.29</t>
-  </si>
-  <si>
-    <t>11.62</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>40.08</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>20.35</t>
-  </si>
-  <si>
-    <t>41.72</t>
-  </si>
-  <si>
-    <t>11.12</t>
-  </si>
-  <si>
-    <t>8.29</t>
-  </si>
-  <si>
-    <t>20.90</t>
-  </si>
-  <si>
-    <t>14.50</t>
-  </si>
-  <si>
-    <t>9.62</t>
-  </si>
-  <si>
-    <t>28.91</t>
-  </si>
-  <si>
-    <t>46.93</t>
-  </si>
-  <si>
-    <t>5.88</t>
-  </si>
-  <si>
-    <t>60.30</t>
-  </si>
-  <si>
-    <t>10.30</t>
-  </si>
-  <si>
-    <t>47.70</t>
-  </si>
-  <si>
-    <t>65.18</t>
-  </si>
-  <si>
-    <t>30.75</t>
-  </si>
-  <si>
-    <t>7.21</t>
-  </si>
-  <si>
-    <t>12.97</t>
-  </si>
-  <si>
-    <t>32.16</t>
-  </si>
-  <si>
-    <t>58.88</t>
-  </si>
-  <si>
-    <t>8.33</t>
-  </si>
-  <si>
-    <t>15.75</t>
-  </si>
-  <si>
-    <t>32.79</t>
-  </si>
-  <si>
-    <t>75.71</t>
-  </si>
-  <si>
-    <t>10.25</t>
-  </si>
-  <si>
-    <t>27.70</t>
-  </si>
-  <si>
-    <t>57.03</t>
-  </si>
-  <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>45.92</t>
-  </si>
-  <si>
-    <t>32.27</t>
-  </si>
-  <si>
-    <t>69.82</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>23.98</t>
-  </si>
-  <si>
-    <t>59.69</t>
-  </si>
-  <si>
-    <t>37.25</t>
-  </si>
-  <si>
-    <t>34.83</t>
-  </si>
-  <si>
-    <t>9.07</t>
-  </si>
-  <si>
-    <t>21.77</t>
-  </si>
-  <si>
-    <t>31.50</t>
-  </si>
-  <si>
-    <t>43.88</t>
-  </si>
-  <si>
-    <t>11.15</t>
-  </si>
-  <si>
-    <t>18.71</t>
-  </si>
-  <si>
-    <t>44.96</t>
-  </si>
-  <si>
-    <t>8.12</t>
-  </si>
-  <si>
-    <t>13.16</t>
-  </si>
-  <si>
-    <t>22.25</t>
-  </si>
-  <si>
-    <t>16.75</t>
-  </si>
-  <si>
-    <t>37.75</t>
-  </si>
-  <si>
-    <t>12.76</t>
-  </si>
-  <si>
-    <t>16.38</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>16.35</t>
-  </si>
-  <si>
-    <t>37.45</t>
-  </si>
-  <si>
-    <t>28.62</t>
-  </si>
-  <si>
-    <t>38.58</t>
-  </si>
-  <si>
-    <t>43.71</t>
-  </si>
-  <si>
-    <t>44.46</t>
-  </si>
-  <si>
-    <t>38.12</t>
   </si>
 </sst>
 </file>
@@ -2602,19 +2593,19 @@
         <v>180</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2622,22 +2613,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2645,22 +2636,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2668,22 +2659,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>203</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2691,22 +2682,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2714,22 +2705,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2737,22 +2728,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2760,22 +2751,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2783,22 +2774,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>104</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2806,22 +2797,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>232</v>
+        <v>180</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2829,22 +2820,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>239</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>242</v>
+        <v>144</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2852,22 +2843,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>244</v>
+        <v>180</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>245</v>
+        <v>123</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2875,22 +2866,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2898,22 +2889,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>256</v>
+        <v>180</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>48</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2921,22 +2912,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>261</v>
+        <v>180</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>262</v>
+        <v>171</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2944,22 +2935,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2967,22 +2958,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>273</v>
+        <v>180</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2990,22 +2981,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>277</v>
+        <v>180</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3013,22 +3004,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>283</v>
+        <v>180</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3036,22 +3027,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>289</v>
+        <v>180</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>294</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3059,22 +3050,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>295</v>
+        <v>180</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3082,22 +3073,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3105,22 +3096,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>306</v>
+        <v>180</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>310</v>
+        <v>248</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>21</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3128,22 +3119,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>311</v>
+        <v>180</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>312</v>
+        <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3151,22 +3142,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>317</v>
+        <v>180</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>318</v>
+        <v>211</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3174,22 +3165,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>322</v>
+        <v>180</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>323</v>
+        <v>211</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>324</v>
+        <v>123</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3197,22 +3188,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>116</v>
+        <v>293</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3220,22 +3211,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>330</v>
+        <v>180</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>331</v>
+        <v>211</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>333</v>
+        <v>232</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3243,22 +3234,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>335</v>
+        <v>180</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>30</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3266,22 +3257,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>342</v>
+        <v>180</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>343</v>
+        <v>180</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>345</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3289,22 +3280,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>346</v>
+        <v>180</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>347</v>
+        <v>197</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>348</v>
+        <v>180</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>349</v>
+        <v>180</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>351</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3314,7 +3305,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3344,719 +3335,6 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4105,7 +3383,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4137,6 +3415,719 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
